--- a/data/trans_orig/Hacinamiento_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>35888</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25285</v>
+        <v>24795</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48483</v>
+        <v>48628</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07291858852869128</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05137632006737469</v>
+        <v>0.05037935864343009</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09851109581394456</v>
+        <v>0.0988060189843661</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -765,19 +765,19 @@
         <v>39266</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28683</v>
+        <v>28891</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>52835</v>
+        <v>52454</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08416182709766318</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0614796990065315</v>
+        <v>0.06192575751657976</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1132467195230079</v>
+        <v>0.1124285884436153</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>76</v>
@@ -786,19 +786,19 @@
         <v>75153</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60981</v>
+        <v>59897</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>95968</v>
+        <v>92926</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07839004548144542</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06360699058738828</v>
+        <v>0.06247687047020685</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1001014349231415</v>
+        <v>0.0969281396555597</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>456271</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>443676</v>
+        <v>443531</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>466874</v>
+        <v>467364</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9270814114713087</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9014889041860553</v>
+        <v>0.9011939810156337</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9486236799326253</v>
+        <v>0.9496206413565699</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>447</v>
@@ -836,19 +836,19 @@
         <v>427284</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>413715</v>
+        <v>414096</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>437867</v>
+        <v>437659</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9158381729023368</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8867532804769921</v>
+        <v>0.8875714115563847</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9385203009934685</v>
+        <v>0.9380742424834202</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>909</v>
@@ -857,19 +857,19 @@
         <v>883556</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>862741</v>
+        <v>865783</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>897728</v>
+        <v>898812</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9216099545185545</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8998985650768585</v>
+        <v>0.9030718603444403</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9363930094126117</v>
+        <v>0.9375231295297932</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>45438</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32987</v>
+        <v>32128</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>62840</v>
+        <v>61244</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06206887441288041</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04506106336009574</v>
+        <v>0.04388797963100635</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08584024266918884</v>
+        <v>0.08366060442585689</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -982,19 +982,19 @@
         <v>48705</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35642</v>
+        <v>35064</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64897</v>
+        <v>65237</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07811811998501791</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05716686757259636</v>
+        <v>0.05623905940505253</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1040889110200884</v>
+        <v>0.1046344275780779</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>82</v>
@@ -1003,19 +1003,19 @@
         <v>94143</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>75260</v>
+        <v>75142</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>115411</v>
+        <v>115044</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06945074430830331</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05552049638682037</v>
+        <v>0.05543380195022065</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08514075476373144</v>
+        <v>0.08487027489489379</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>686616</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>669214</v>
+        <v>670810</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>699067</v>
+        <v>699926</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9379311255871196</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9141597573308121</v>
+        <v>0.9163393955741431</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9549389366399044</v>
+        <v>0.9561120203689938</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>546</v>
@@ -1053,19 +1053,19 @@
         <v>574774</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>558582</v>
+        <v>558242</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>587837</v>
+        <v>588415</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9218818800149821</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8959110889799115</v>
+        <v>0.8953655724219219</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9428331324274035</v>
+        <v>0.9437609405949472</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1207</v>
@@ -1074,19 +1074,19 @@
         <v>1261390</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1240122</v>
+        <v>1240489</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1280273</v>
+        <v>1280391</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9305492556916967</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9148592452362686</v>
+        <v>0.9151297251051062</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9444795036131798</v>
+        <v>0.9445661980497794</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>26392</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17631</v>
+        <v>17057</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40209</v>
+        <v>38863</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04146170660835489</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02769832293066317</v>
+        <v>0.02679714376224886</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06316815522263222</v>
+        <v>0.06105456703103488</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -1199,19 +1199,19 @@
         <v>57470</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42785</v>
+        <v>44667</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73133</v>
+        <v>75584</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08332074222125453</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06203070723048434</v>
+        <v>0.06475935733925368</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1060297004990978</v>
+        <v>0.1095826176586122</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>73</v>
@@ -1220,19 +1220,19 @@
         <v>83862</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>67558</v>
+        <v>66038</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>105340</v>
+        <v>104313</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06323091540870321</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05093838728142695</v>
+        <v>0.04979166413676663</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07942509636886501</v>
+        <v>0.07865112462266129</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>610142</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>596325</v>
+        <v>597671</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>618903</v>
+        <v>619477</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9585382933916451</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9368318447773678</v>
+        <v>0.9389454329689648</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9723016770693369</v>
+        <v>0.9732028562377512</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>607</v>
@@ -1270,19 +1270,19 @@
         <v>632274</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>616611</v>
+        <v>614160</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>646959</v>
+        <v>645077</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9166792577787455</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8939702995009021</v>
+        <v>0.8904173823413877</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9379692927695152</v>
+        <v>0.935240642660745</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1196</v>
@@ -1291,19 +1291,19 @@
         <v>1242416</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1220938</v>
+        <v>1221965</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1258720</v>
+        <v>1260240</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9367690845912968</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9205749036311351</v>
+        <v>0.9213488753773386</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9490616127185731</v>
+        <v>0.9502083358632333</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>20141</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12051</v>
+        <v>11731</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30817</v>
+        <v>30418</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03895565176108527</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02330720049958969</v>
+        <v>0.02268992554189033</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05960325614849621</v>
+        <v>0.05883227536970304</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -1416,19 +1416,19 @@
         <v>25393</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16883</v>
+        <v>15986</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36245</v>
+        <v>36779</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04962822691397029</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03299565539177601</v>
+        <v>0.03124344288112371</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07083724485973511</v>
+        <v>0.07188145469548253</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -1437,19 +1437,19 @@
         <v>45535</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33366</v>
+        <v>33273</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>61270</v>
+        <v>61451</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04426409137270622</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03243548365172497</v>
+        <v>0.03234450117656738</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05956024286975047</v>
+        <v>0.05973614201870267</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>496894</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>486218</v>
+        <v>486617</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>504984</v>
+        <v>505304</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9610443482389147</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9403967438515041</v>
+        <v>0.9411677246302966</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9766927995004104</v>
+        <v>0.9773100744581096</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>474</v>
@@ -1487,19 +1487,19 @@
         <v>486273</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>475421</v>
+        <v>474887</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>494783</v>
+        <v>495680</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9503717730860297</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9291627551402649</v>
+        <v>0.9281185453045174</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.967004344608224</v>
+        <v>0.9687565571188761</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>937</v>
@@ -1508,19 +1508,19 @@
         <v>983166</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>967431</v>
+        <v>967250</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>995335</v>
+        <v>995428</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9557359086272937</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9404397571302496</v>
+        <v>0.940263857981298</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9675645163482752</v>
+        <v>0.967655498823433</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>15433</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9241</v>
+        <v>8500</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23944</v>
+        <v>24606</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03990871728440065</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02389583496584034</v>
+        <v>0.02198129906337641</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06191632035330669</v>
+        <v>0.06362841299702821</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -1633,19 +1633,19 @@
         <v>16818</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10019</v>
+        <v>10558</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26561</v>
+        <v>26731</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04162924996189703</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02480043543087386</v>
+        <v>0.02613372550249118</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0657463516092389</v>
+        <v>0.06616839830267778</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -1654,19 +1654,19 @@
         <v>32251</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22008</v>
+        <v>21857</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>44254</v>
+        <v>45901</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04078777961131413</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02783347047941754</v>
+        <v>0.02764275923719796</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05596809905900747</v>
+        <v>0.05805179479777862</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>371277</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>362766</v>
+        <v>362104</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>377469</v>
+        <v>378210</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9600912827155994</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.938083679646694</v>
+        <v>0.936371587002972</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9761041650341598</v>
+        <v>0.9780187009366237</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>380</v>
@@ -1704,19 +1704,19 @@
         <v>387168</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>377425</v>
+        <v>377255</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>393967</v>
+        <v>393428</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.958370750038103</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9342536483907612</v>
+        <v>0.9338316016973222</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9751995645691263</v>
+        <v>0.9738662744975086</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>756</v>
@@ -1725,19 +1725,19 @@
         <v>758445</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>746442</v>
+        <v>744795</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>768688</v>
+        <v>768839</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9592122203886859</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9440319009409925</v>
+        <v>0.9419482052022213</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9721665295205825</v>
+        <v>0.9723572407628019</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>9554</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4838</v>
+        <v>4976</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16465</v>
+        <v>17286</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03274716018479371</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01658143095876783</v>
+        <v>0.01705525780069163</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05643512454970476</v>
+        <v>0.05924992727786956</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -1850,19 +1850,19 @@
         <v>6555</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2791</v>
+        <v>2801</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12299</v>
+        <v>13212</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01922530349911492</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008184902277293413</v>
+        <v>0.008215387401350298</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03607306681905813</v>
+        <v>0.03875079626898038</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -1871,19 +1871,19 @@
         <v>16109</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9608</v>
+        <v>9580</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24906</v>
+        <v>25785</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02546047383034399</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01518534303554489</v>
+        <v>0.01514154634565436</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03936421363384224</v>
+        <v>0.04075462644183293</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>282193</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>275282</v>
+        <v>274461</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>286909</v>
+        <v>286771</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9672528398152063</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9435648754502953</v>
+        <v>0.9407500727221294</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9834185690412323</v>
+        <v>0.9829447421993084</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>362</v>
@@ -1921,19 +1921,19 @@
         <v>334393</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>328649</v>
+        <v>327736</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>338157</v>
+        <v>338147</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9807746965008851</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9639269331809418</v>
+        <v>0.9612492037310195</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9918150977227065</v>
+        <v>0.9917846125986497</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>654</v>
@@ -1942,19 +1942,19 @@
         <v>616587</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>607790</v>
+        <v>606911</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>623088</v>
+        <v>623116</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.974539526169656</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9606357863661577</v>
+        <v>0.9592453735581671</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.984814656964455</v>
+        <v>0.9848584536543457</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>4461</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1767</v>
+        <v>1670</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10393</v>
+        <v>9327</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02125573106027418</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008418369787499701</v>
+        <v>0.007954888293154041</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04952017447307177</v>
+        <v>0.04443812025877072</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -2070,16 +2070,16 @@
         <v>2341</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14926</v>
+        <v>14609</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02052454008508312</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007011165904563304</v>
+        <v>0.007011267644346138</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04470223811928629</v>
+        <v>0.04375178646165366</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -2088,19 +2088,19 @@
         <v>11315</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5927</v>
+        <v>5694</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>19995</v>
+        <v>19671</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02080675248039826</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01089980362610041</v>
+        <v>0.01047054000040057</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03677014438954932</v>
+        <v>0.03617386526161258</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>205422</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>199490</v>
+        <v>200556</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>208116</v>
+        <v>208213</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9787442689397258</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9504798255269283</v>
+        <v>0.9555618797412302</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9915816302125002</v>
+        <v>0.992045111706846</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>284</v>
@@ -2138,7 +2138,7 @@
         <v>327055</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>318982</v>
+        <v>319299</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>331567</v>
@@ -2147,10 +2147,10 @@
         <v>0.9794754599149169</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9552977618807136</v>
+        <v>0.9562482135383437</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9929888340954367</v>
+        <v>0.9929887323556539</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>499</v>
@@ -2159,19 +2159,19 @@
         <v>532476</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>523796</v>
+        <v>524120</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>537864</v>
+        <v>538097</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9791932475196017</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9632298556104507</v>
+        <v>0.9638261347383874</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9891001963738998</v>
+        <v>0.9895294599995994</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>157307</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>132449</v>
+        <v>135597</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>182510</v>
+        <v>184140</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04816314961248738</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04055222725945101</v>
+        <v>0.04151607047531067</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05587957405910527</v>
+        <v>0.05637873244903176</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>188</v>
@@ -2284,19 +2284,19 @@
         <v>201060</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>174375</v>
+        <v>173679</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>230564</v>
+        <v>231061</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05965660651832618</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05173895366247423</v>
+        <v>0.05153256432590372</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06841080906021105</v>
+        <v>0.06855843117732992</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>334</v>
@@ -2305,19 +2305,19 @@
         <v>358366</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>320295</v>
+        <v>317890</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>397336</v>
+        <v>393194</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05400007460570384</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04826339422890741</v>
+        <v>0.04790087883121463</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05987213360179742</v>
+        <v>0.05924802034955488</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3108815</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3083612</v>
+        <v>3081982</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3133673</v>
+        <v>3130525</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9518368503875126</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9441204259408947</v>
+        <v>0.9436212675509682</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.959447772740549</v>
+        <v>0.9584839295246893</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3100</v>
@@ -2355,19 +2355,19 @@
         <v>3169222</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3139718</v>
+        <v>3139221</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3195907</v>
+        <v>3196603</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9403433934816738</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9315891909397891</v>
+        <v>0.9314415688226703</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9482610463375258</v>
+        <v>0.9484674356740966</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6158</v>
@@ -2376,19 +2376,19 @@
         <v>6278038</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6239068</v>
+        <v>6243210</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6316109</v>
+        <v>6318514</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9459999253942961</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9401278663982022</v>
+        <v>0.9407519796504451</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9517366057710924</v>
+        <v>0.9520991211687854</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>23025</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14947</v>
+        <v>14302</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34928</v>
+        <v>34505</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05084659976473715</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03300679826188264</v>
+        <v>0.03158436333262566</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0771314518760826</v>
+        <v>0.07619799829930414</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -2744,19 +2744,19 @@
         <v>39788</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29132</v>
+        <v>28665</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54223</v>
+        <v>52151</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09248082055890591</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06771348481718445</v>
+        <v>0.06662736346342883</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1260326938104175</v>
+        <v>0.1212168132318086</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -2765,19 +2765,19 @@
         <v>62813</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48689</v>
+        <v>48502</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83242</v>
+        <v>80227</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07113088118329906</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05513616687958902</v>
+        <v>0.05492454787835548</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09426466003980073</v>
+        <v>0.09085029992164551</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>429808</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>417905</v>
+        <v>418328</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>437886</v>
+        <v>438531</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9491534002352628</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9228685481239172</v>
+        <v>0.9238020017006957</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9669932017381173</v>
+        <v>0.9684156366673743</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>383</v>
@@ -2815,19 +2815,19 @@
         <v>390442</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>376007</v>
+        <v>378079</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>401098</v>
+        <v>401565</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9075191794410941</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8739673061895824</v>
+        <v>0.8787831867681913</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9322865151828156</v>
+        <v>0.9333726365365711</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>806</v>
@@ -2836,19 +2836,19 @@
         <v>820250</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>799821</v>
+        <v>802836</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>834374</v>
+        <v>834561</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.928869118816701</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9057353399601989</v>
+        <v>0.9091497000783545</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.944863833120411</v>
+        <v>0.9450754521216445</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>32067</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22375</v>
+        <v>22978</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45277</v>
+        <v>45424</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04667147985356978</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03256483442125801</v>
+        <v>0.03344304758638208</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06589705599315629</v>
+        <v>0.06611141411238249</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -2961,19 +2961,19 @@
         <v>59155</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45131</v>
+        <v>46185</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>76265</v>
+        <v>75649</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09708445042871126</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07406883374540385</v>
+        <v>0.07579878765652405</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1251640525657603</v>
+        <v>0.1241538872628163</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>87</v>
@@ -2982,19 +2982,19 @@
         <v>91223</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>72591</v>
+        <v>73996</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110238</v>
+        <v>110714</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07036584288706579</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05599400996005782</v>
+        <v>0.05707767788715704</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08503367384833212</v>
+        <v>0.08540081437026151</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>655020</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>641810</v>
+        <v>641663</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>664712</v>
+        <v>664109</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9533285201464302</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9341029440068446</v>
+        <v>0.9338885858876175</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9674351655787427</v>
+        <v>0.9665569524136179</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>514</v>
@@ -3032,19 +3032,19 @@
         <v>550162</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>533052</v>
+        <v>533668</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>564186</v>
+        <v>563132</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9029155495712887</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8748359474342396</v>
+        <v>0.8758461127371838</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9259311662545961</v>
+        <v>0.924201212343476</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1150</v>
@@ -3053,19 +3053,19 @@
         <v>1205181</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1186166</v>
+        <v>1185690</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1223813</v>
+        <v>1222408</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9296341571129342</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9149663261516674</v>
+        <v>0.9145991856297382</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9440059900399422</v>
+        <v>0.9429223221128421</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>52363</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39784</v>
+        <v>40708</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66902</v>
+        <v>66979</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07679379993051494</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05834545633060595</v>
+        <v>0.05970108296893334</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09811610936601643</v>
+        <v>0.09822940955200578</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>70</v>
@@ -3178,19 +3178,19 @@
         <v>74474</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>57475</v>
+        <v>58367</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>92491</v>
+        <v>91739</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1049148242659938</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08096764428052791</v>
+        <v>0.08222482012140195</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1302962776273402</v>
+        <v>0.1292373890316263</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>121</v>
@@ -3199,19 +3199,19 @@
         <v>126837</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>107756</v>
+        <v>105402</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>149329</v>
+        <v>149172</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09113708911197765</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07742679806066433</v>
+        <v>0.07573540268778255</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1072986315333379</v>
+        <v>0.1071859456756942</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>629500</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>614961</v>
+        <v>614884</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>642079</v>
+        <v>641155</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9232062000694851</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9018838906339836</v>
+        <v>0.9017705904479941</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9416545436693938</v>
+        <v>0.9402989170310665</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>596</v>
@@ -3249,19 +3249,19 @@
         <v>635378</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>617361</v>
+        <v>618113</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>652377</v>
+        <v>651485</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8950851757340063</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8697037223726598</v>
+        <v>0.8707626109683736</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9190323557194719</v>
+        <v>0.9177751798785978</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1196</v>
@@ -3270,19 +3270,19 @@
         <v>1264878</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1242386</v>
+        <v>1242543</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1283959</v>
+        <v>1286313</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9088629108880224</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8927013684666621</v>
+        <v>0.8928140543243058</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9225732019393357</v>
+        <v>0.9242645973122176</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>26655</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16890</v>
+        <v>17722</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38834</v>
+        <v>38849</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0438843956673397</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02780761484448623</v>
+        <v>0.02917805872376487</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06393563774540464</v>
+        <v>0.06396029174439391</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -3395,19 +3395,19 @@
         <v>24223</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15625</v>
+        <v>14597</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36710</v>
+        <v>34818</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03970760946976996</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02561357268313826</v>
+        <v>0.02392850795022438</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06017720408946555</v>
+        <v>0.05707535219462701</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -3416,19 +3416,19 @@
         <v>50878</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37450</v>
+        <v>37621</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>66271</v>
+        <v>66283</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04179146172712021</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03076204379179802</v>
+        <v>0.03090217469805368</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05443519243403061</v>
+        <v>0.05444515618349209</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>580734</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>568555</v>
+        <v>568540</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>590499</v>
+        <v>589667</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9561156043326603</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9360643622545953</v>
+        <v>0.9360397082556056</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9721923851555136</v>
+        <v>0.9708219412762348</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>513</v>
@@ -3466,19 +3466,19 @@
         <v>585813</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>573326</v>
+        <v>575218</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>594411</v>
+        <v>595439</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9602923905302301</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9398227959105352</v>
+        <v>0.9429246478053729</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9743864273168618</v>
+        <v>0.9760714920497751</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1030</v>
@@ -3487,19 +3487,19 @@
         <v>1166547</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1151154</v>
+        <v>1151142</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1179975</v>
+        <v>1179804</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9582085382728798</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9455648075659691</v>
+        <v>0.9455548438165079</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.969237956208202</v>
+        <v>0.9690978253019463</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>12564</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7109</v>
+        <v>6635</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21272</v>
+        <v>20723</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0292572730262792</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01655545429608647</v>
+        <v>0.01545138019592326</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04953438697285055</v>
+        <v>0.04825724664696159</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -3612,19 +3612,19 @@
         <v>13357</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7188</v>
+        <v>7153</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22088</v>
+        <v>22577</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02997816766136621</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01613226632331047</v>
+        <v>0.0160529031189361</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0495731596993199</v>
+        <v>0.05067109101476398</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -3633,19 +3633,19 @@
         <v>25921</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17731</v>
+        <v>17237</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38438</v>
+        <v>37176</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0296243670729093</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02026412317185654</v>
+        <v>0.01969903628714772</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04392933127738053</v>
+        <v>0.04248669928193092</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>416865</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>408157</v>
+        <v>408706</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>422320</v>
+        <v>422794</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9707427269737208</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.950465613027149</v>
+        <v>0.9517427533530379</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9834445457039135</v>
+        <v>0.9845486198040767</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>391</v>
@@ -3683,19 +3683,19 @@
         <v>432207</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>423476</v>
+        <v>422987</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>438376</v>
+        <v>438411</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9700218323386338</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.95042684030068</v>
+        <v>0.949328908985236</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9838677336766896</v>
+        <v>0.983947096881064</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>772</v>
@@ -3704,19 +3704,19 @@
         <v>849072</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>836555</v>
+        <v>837817</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>857262</v>
+        <v>857756</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9703756329270907</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9560706687226195</v>
+        <v>0.9575133007180692</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9797358768281434</v>
+        <v>0.9803009637128522</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>10399</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5116</v>
+        <v>5184</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18480</v>
+        <v>19281</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03367522673887705</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01656569115284253</v>
+        <v>0.01678619415894985</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05984372292256577</v>
+        <v>0.06243868430294925</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -3829,19 +3829,19 @@
         <v>3007</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8965</v>
+        <v>8041</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.008517674839483394</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002698203789770127</v>
+        <v>0.002668987265288114</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02539744373932322</v>
+        <v>0.0227814481326623</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -3850,19 +3850,19 @@
         <v>13406</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7162</v>
+        <v>7555</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22284</v>
+        <v>22362</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02025676896250974</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01082153839314951</v>
+        <v>0.011416848753894</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03367262056583895</v>
+        <v>0.033790855158919</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>298405</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>290324</v>
+        <v>289523</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>303688</v>
+        <v>303620</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.966324773261123</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9401562770774342</v>
+        <v>0.9375613156970506</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9834343088471573</v>
+        <v>0.98321380584105</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>340</v>
@@ -3900,19 +3900,19 @@
         <v>349974</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>344016</v>
+        <v>344940</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>352029</v>
+        <v>352039</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9914823251605166</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9746025562606769</v>
+        <v>0.9772185518673382</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9973017962102299</v>
+        <v>0.9973310127347119</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>611</v>
@@ -3921,19 +3921,19 @@
         <v>648379</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>639501</v>
+        <v>639423</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>654623</v>
+        <v>654230</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9797432310374903</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9663273794341608</v>
+        <v>0.9662091448410808</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9891784616068504</v>
+        <v>0.988583151246106</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>5277</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2085</v>
+        <v>2073</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11623</v>
+        <v>12579</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02138942974218099</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008449853741415386</v>
+        <v>0.008402323671896103</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04710930392374413</v>
+        <v>0.05098481760315703</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -4046,19 +4046,19 @@
         <v>5695</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2170</v>
+        <v>2185</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13175</v>
+        <v>14315</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01476438719183969</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005625689832934663</v>
+        <v>0.005664160707229431</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03415783312805748</v>
+        <v>0.03711488031853406</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -4067,19 +4067,19 @@
         <v>10972</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5362</v>
+        <v>5387</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>20687</v>
+        <v>20078</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01734891822988894</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008477899462040115</v>
+        <v>0.008518284514666581</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03271083608176558</v>
+        <v>0.03174787934555102</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>241439</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>235093</v>
+        <v>234137</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>244631</v>
+        <v>244643</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9786105702578191</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9528906960762564</v>
+        <v>0.9490151823968421</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9915501462585846</v>
+        <v>0.9915976763281039</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>342</v>
@@ -4117,19 +4117,19 @@
         <v>380006</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>372526</v>
+        <v>371386</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>383531</v>
+        <v>383516</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9852356128081603</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9658421668719424</v>
+        <v>0.9628851196814655</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9943743101670653</v>
+        <v>0.9943358392927705</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>556</v>
@@ -4138,19 +4138,19 @@
         <v>621445</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>611730</v>
+        <v>612339</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>627055</v>
+        <v>627030</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9826510817701111</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9672891639182347</v>
+        <v>0.9682521206544494</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.99152210053796</v>
+        <v>0.9914817154853335</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>162350</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>137136</v>
+        <v>137018</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>188015</v>
+        <v>189349</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04755256521183986</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04016744845961875</v>
+        <v>0.04013265442900916</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05506976343677429</v>
+        <v>0.05546055452612214</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>206</v>
@@ -4263,19 +4263,19 @@
         <v>219699</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>187897</v>
+        <v>193448</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>248679</v>
+        <v>254305</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06199730902972931</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05302306005495679</v>
+        <v>0.05458954365165943</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07017522778640328</v>
+        <v>0.07176294956434134</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>361</v>
@@ -4284,19 +4284,19 @@
         <v>382049</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>350124</v>
+        <v>344937</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>425742</v>
+        <v>420211</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05490942457244943</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05032109394903201</v>
+        <v>0.04957551096586398</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06118918531158693</v>
+        <v>0.06039417955419019</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3251770</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3226105</v>
+        <v>3224771</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3276984</v>
+        <v>3277102</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9524474347881602</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9449302365632257</v>
+        <v>0.9445394454738778</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9598325515403813</v>
+        <v>0.9598673455709908</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3079</v>
@@ -4334,19 +4334,19 @@
         <v>3323982</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3295002</v>
+        <v>3289376</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3355784</v>
+        <v>3350233</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9380026909702707</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9298247722135967</v>
+        <v>0.9282370504356587</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9469769399450433</v>
+        <v>0.9454104563483405</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6121</v>
@@ -4355,19 +4355,19 @@
         <v>6575752</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6532059</v>
+        <v>6537590</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6607677</v>
+        <v>6612864</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9450905754275506</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9388108146884129</v>
+        <v>0.9396058204458096</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9496789060509679</v>
+        <v>0.9504244890341359</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>32137</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21962</v>
+        <v>21335</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45311</v>
+        <v>43451</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07681761725685085</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05249574519735661</v>
+        <v>0.05099851492484762</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1083091591938697</v>
+        <v>0.1038627991946436</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -4723,19 +4723,19 @@
         <v>26831</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18071</v>
+        <v>17677</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39057</v>
+        <v>37136</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06847941519807418</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04612233361299929</v>
+        <v>0.04511777505189234</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09968523231055371</v>
+        <v>0.09478086311959173</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>55</v>
@@ -4744,19 +4744,19 @@
         <v>58967</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>45961</v>
+        <v>45363</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>77506</v>
+        <v>74472</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07278512449984186</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05673069509218716</v>
+        <v>0.05599292933252123</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09566768002786578</v>
+        <v>0.09192304155329825</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>386214</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>373040</v>
+        <v>374900</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>396389</v>
+        <v>397016</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9231823827431491</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8916908408061304</v>
+        <v>0.8961372008053563</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9475042548026434</v>
+        <v>0.9490014850751525</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>374</v>
@@ -4794,19 +4794,19 @@
         <v>364974</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>352748</v>
+        <v>354669</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>373734</v>
+        <v>374128</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9315205848019258</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9003147676894463</v>
+        <v>0.9052191368804082</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9538776663870007</v>
+        <v>0.9548822249481077</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>737</v>
@@ -4815,19 +4815,19 @@
         <v>751189</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>732650</v>
+        <v>735684</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>764195</v>
+        <v>764793</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9272148755001581</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9043323199721343</v>
+        <v>0.9080769584467018</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9432693049078129</v>
+        <v>0.9440070706674789</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>37109</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26089</v>
+        <v>25660</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51313</v>
+        <v>48937</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06327151407817429</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04448178948749545</v>
+        <v>0.04375082611107347</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08748945165718304</v>
+        <v>0.08343794185685217</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -4940,19 +4940,19 @@
         <v>30158</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21419</v>
+        <v>21768</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41739</v>
+        <v>41830</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0540689202716505</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03840218161118558</v>
+        <v>0.03902675016704488</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07483317700156811</v>
+        <v>0.07499603643358878</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>65</v>
@@ -4961,19 +4961,19 @@
         <v>67267</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52629</v>
+        <v>51520</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84911</v>
+        <v>84174</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05878578728897408</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04599370308871663</v>
+        <v>0.04502425525666352</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07420588934694948</v>
+        <v>0.07356137666360667</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>549395</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>535191</v>
+        <v>537567</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>560415</v>
+        <v>560844</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9367284859218257</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.912510548342817</v>
+        <v>0.9165620581431473</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9555182105125046</v>
+        <v>0.9562491738889263</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>542</v>
@@ -5011,19 +5011,19 @@
         <v>527606</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>516025</v>
+        <v>515934</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>536345</v>
+        <v>535996</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9459310797283494</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9251668229984314</v>
+        <v>0.9250039635664111</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9615978183888143</v>
+        <v>0.9609732498329551</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1071</v>
@@ -5032,19 +5032,19 @@
         <v>1077001</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1059357</v>
+        <v>1060094</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1091639</v>
+        <v>1092748</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9412142127110259</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9257941106530505</v>
+        <v>0.9264386233363934</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9540062969112839</v>
+        <v>0.9549757447433367</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>30433</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20726</v>
+        <v>20474</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43948</v>
+        <v>43368</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04559660251287077</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03105262221557286</v>
+        <v>0.03067499595897603</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06584514925012834</v>
+        <v>0.06497714899357945</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -5157,19 +5157,19 @@
         <v>45678</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34145</v>
+        <v>34513</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59976</v>
+        <v>59761</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06906359160320884</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05162576884293948</v>
+        <v>0.05218336676700872</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09068238889108202</v>
+        <v>0.09035674671360985</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>75</v>
@@ -5178,19 +5178,19 @@
         <v>76111</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>60919</v>
+        <v>60641</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>94673</v>
+        <v>95497</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05727662466094597</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04584415392059094</v>
+        <v>0.04563522363307515</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07124582407078985</v>
+        <v>0.07186562920661883</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>637009</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>623494</v>
+        <v>624074</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>646716</v>
+        <v>646968</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9544033974871292</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9341548507498715</v>
+        <v>0.9350228510064206</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9689473777844271</v>
+        <v>0.969325004041024</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>618</v>
@@ -5228,19 +5228,19 @@
         <v>615708</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>601410</v>
+        <v>601625</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>627241</v>
+        <v>626873</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9309364083967911</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.909317611108918</v>
+        <v>0.9096432532863902</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9483742311570605</v>
+        <v>0.9478166332329913</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1227</v>
@@ -5249,19 +5249,19 @@
         <v>1252717</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1234155</v>
+        <v>1233331</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1267909</v>
+        <v>1268187</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.942723375339054</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9287541759292097</v>
+        <v>0.9281343707933812</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9541558460794084</v>
+        <v>0.954364776366925</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>24554</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16151</v>
+        <v>15010</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37090</v>
+        <v>37834</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03824933469640619</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02516011315950749</v>
+        <v>0.02338164053422361</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05777767258888534</v>
+        <v>0.05893689456775558</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -5374,19 +5374,19 @@
         <v>26373</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17996</v>
+        <v>17544</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39136</v>
+        <v>38031</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04083215422728715</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02786272855415984</v>
+        <v>0.02716282406787832</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06059365968665262</v>
+        <v>0.05888271385868837</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -5395,19 +5395,19 @@
         <v>50927</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37830</v>
+        <v>38158</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>68367</v>
+        <v>66840</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0395446847629144</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02937545833898308</v>
+        <v>0.02963001081921105</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05308730986083207</v>
+        <v>0.05190112823769129</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>617394</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>604858</v>
+        <v>604114</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>625797</v>
+        <v>626938</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9617506653035938</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9422223274111147</v>
+        <v>0.9410631054322444</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9748398868404925</v>
+        <v>0.9766183594657765</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>574</v>
@@ -5445,19 +5445,19 @@
         <v>619505</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>606742</v>
+        <v>607847</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>627882</v>
+        <v>628334</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9591678457727129</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9394063403133475</v>
+        <v>0.9411172861413117</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9721372714458403</v>
+        <v>0.9728371759321217</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1133</v>
@@ -5466,19 +5466,19 @@
         <v>1236899</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1219459</v>
+        <v>1220986</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1249996</v>
+        <v>1249668</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9604553152370856</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9469126901391679</v>
+        <v>0.9480988717623087</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.970624541661017</v>
+        <v>0.970369989180789</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>10722</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5372</v>
+        <v>5131</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19778</v>
+        <v>20237</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02263201646952782</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0113387128782745</v>
+        <v>0.01083089078212409</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0417477519077285</v>
+        <v>0.0427156446186151</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -5591,19 +5591,19 @@
         <v>16122</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9080</v>
+        <v>9290</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25226</v>
+        <v>26201</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03252414626202082</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01831746072725228</v>
+        <v>0.01874157884159939</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05089114577854275</v>
+        <v>0.05285771482775886</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -5612,19 +5612,19 @@
         <v>26844</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17811</v>
+        <v>17347</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>41039</v>
+        <v>39622</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02769000053181667</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01837247085989053</v>
+        <v>0.0178933669950427</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0423328874503243</v>
+        <v>0.04087104238735448</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>463032</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>453976</v>
+        <v>453517</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>468382</v>
+        <v>468623</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9773679835304722</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9582522480922715</v>
+        <v>0.9572843553813852</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9886612871217255</v>
+        <v>0.989169109217876</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>418</v>
@@ -5662,19 +5662,19 @@
         <v>479568</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>470464</v>
+        <v>469489</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>486610</v>
+        <v>486400</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9674758537379792</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9491088542214573</v>
+        <v>0.9471422851722419</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9816825392727477</v>
+        <v>0.9812584211584006</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>829</v>
@@ -5683,19 +5683,19 @@
         <v>942600</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>928405</v>
+        <v>929822</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>951633</v>
+        <v>952097</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9723099994681833</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9576671125496757</v>
+        <v>0.9591289576126456</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9816275291401098</v>
+        <v>0.9821066330049575</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>6116</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2095</v>
+        <v>2082</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13194</v>
+        <v>13022</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01839457740026371</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006301869581550579</v>
+        <v>0.006261187264254846</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03968354835861612</v>
+        <v>0.03916678060092196</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -5808,19 +5808,19 @@
         <v>9219</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4282</v>
+        <v>4145</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18781</v>
+        <v>17199</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02447009054449254</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01136464273601766</v>
+        <v>0.01100334075477272</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04985119659484536</v>
+        <v>0.04565233566724532</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -5829,19 +5829,19 @@
         <v>15335</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8364</v>
+        <v>8521</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>25340</v>
+        <v>25520</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02162193498623343</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01179369346929793</v>
+        <v>0.01201410453711714</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03572905972057715</v>
+        <v>0.03598296397862159</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>326359</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>319281</v>
+        <v>319453</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>330380</v>
+        <v>330393</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9816054225997363</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9603164516413835</v>
+        <v>0.960833219399078</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9936981304184495</v>
+        <v>0.9937388127357452</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>345</v>
@@ -5879,19 +5879,19 @@
         <v>367521</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>357959</v>
+        <v>359541</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>372458</v>
+        <v>372595</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9755299094555074</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9501488034051546</v>
+        <v>0.9543476643327541</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9886353572639823</v>
+        <v>0.9889966592452272</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>662</v>
@@ -5900,19 +5900,19 @@
         <v>693880</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>683875</v>
+        <v>683695</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>700851</v>
+        <v>700694</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9783780650137666</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9642709402794236</v>
+        <v>0.9640170360213787</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9882063065307021</v>
+        <v>0.9879858954628828</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>4053</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1471</v>
+        <v>868</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11842</v>
+        <v>10437</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01592281235135309</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005780490422221967</v>
+        <v>0.003410234144283453</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04652528442523182</v>
+        <v>0.04100439431573977</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -6025,19 +6025,19 @@
         <v>5935</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1307</v>
+        <v>1343</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15385</v>
+        <v>14781</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01495237101517993</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003292637091157248</v>
+        <v>0.003382220148921905</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.038758279182049</v>
+        <v>0.03723641146293234</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>8</v>
@@ -6046,19 +6046,19 @@
         <v>9988</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4267</v>
+        <v>4346</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>20005</v>
+        <v>20018</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01533151911968751</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006549360684211781</v>
+        <v>0.006671059991461134</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0307070537358009</v>
+        <v>0.03072760819494418</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>250478</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>242689</v>
+        <v>244094</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>253060</v>
+        <v>253663</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9840771876486469</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9534747155747686</v>
+        <v>0.9589956056842605</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.994219509577778</v>
+        <v>0.9965897658557166</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>295</v>
@@ -6096,19 +6096,19 @@
         <v>391013</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>381563</v>
+        <v>382167</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>395641</v>
+        <v>395605</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9850476289848201</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.961241720817951</v>
+        <v>0.9627635885370688</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9967073629088428</v>
+        <v>0.9966177798510781</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>590</v>
@@ -6117,19 +6117,19 @@
         <v>641491</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>631474</v>
+        <v>631461</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>647212</v>
+        <v>647133</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9846684808803124</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9692929462641985</v>
+        <v>0.9692723918050556</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.993450639315788</v>
+        <v>0.9933289400085388</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>145123</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>124673</v>
+        <v>122463</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>172077</v>
+        <v>169352</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04299949685167812</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03694020866890367</v>
+        <v>0.03628535554080529</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05098573309205656</v>
+        <v>0.05017824328809463</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>155</v>
@@ -6242,19 +6242,19 @@
         <v>160315</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>137019</v>
+        <v>138272</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>188711</v>
+        <v>187796</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04546370200966916</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.038857200067521</v>
+        <v>0.0392127204652896</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0535166411330987</v>
+        <v>0.05325709353075194</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>285</v>
@@ -6263,19 +6263,19 @@
         <v>305438</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>273672</v>
+        <v>270316</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>343029</v>
+        <v>341497</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0442585949944832</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03965567644738178</v>
+        <v>0.03916936580052433</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04970562566045438</v>
+        <v>0.0494836400468465</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3229881</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3202927</v>
+        <v>3205652</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3250331</v>
+        <v>3252541</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9570005031483219</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9490142669079434</v>
+        <v>0.9498217567119054</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9630597913310963</v>
+        <v>0.9637146444591946</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3166</v>
@@ -6313,19 +6313,19 @@
         <v>3365896</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3337500</v>
+        <v>3338415</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3389192</v>
+        <v>3387939</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9545362979903308</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9464833588669013</v>
+        <v>0.9467429064692477</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.961142799932479</v>
+        <v>0.9607872795347103</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6249</v>
@@ -6334,19 +6334,19 @@
         <v>6595778</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6558187</v>
+        <v>6559719</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6627544</v>
+        <v>6630900</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9557414050055169</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9502943743395456</v>
+        <v>0.9505163599531535</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9603443235526182</v>
+        <v>0.9608306341994756</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>12295</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4478</v>
+        <v>4351</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27882</v>
+        <v>26275</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.03072128138396415</v>
+        <v>0.03072128138396416</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01118844256904457</v>
+        <v>0.01087283514033141</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06967199495794854</v>
+        <v>0.06565514670824836</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -6702,19 +6702,19 @@
         <v>26931</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15181</v>
+        <v>15472</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43988</v>
+        <v>44824</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07429038653905586</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04187699285446815</v>
+        <v>0.0426787186777671</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1213435545803919</v>
+        <v>0.1236495808076335</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -6723,19 +6723,19 @@
         <v>39226</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24595</v>
+        <v>24100</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>61174</v>
+        <v>62002</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05142951974769903</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03224674511190668</v>
+        <v>0.03159731394585801</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08020677805498695</v>
+        <v>0.08129253008017899</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>387900</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>372313</v>
+        <v>373920</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>395717</v>
+        <v>395844</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.969278718616036</v>
+        <v>0.9692787186160358</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9303280050420517</v>
+        <v>0.9343448532917515</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9888115574309555</v>
+        <v>0.9891271648596685</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>193</v>
@@ -6773,19 +6773,19 @@
         <v>335581</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>318524</v>
+        <v>317688</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>347331</v>
+        <v>347040</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9257096134609442</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.878656445419608</v>
+        <v>0.8763504191923663</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9581230071455314</v>
+        <v>0.9573212813222327</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>356</v>
@@ -6794,19 +6794,19 @@
         <v>723482</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>701534</v>
+        <v>700706</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>738113</v>
+        <v>738608</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9485704802523011</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9197932219450131</v>
+        <v>0.9187074699198213</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9677532548880936</v>
+        <v>0.9684026860541421</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>6332</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1353</v>
+        <v>1402</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16673</v>
+        <v>16347</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01331507782042638</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002844530373021399</v>
+        <v>0.002947291602861089</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03505849015294693</v>
+        <v>0.03437205330784331</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -6919,19 +6919,19 @@
         <v>13687</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7938</v>
+        <v>8077</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23162</v>
+        <v>22437</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02760297150016356</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01600977944700818</v>
+        <v>0.01629024103583751</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04671277579264656</v>
+        <v>0.04525015303353495</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -6940,19 +6940,19 @@
         <v>20019</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12445</v>
+        <v>10953</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31427</v>
+        <v>30796</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02060800114072288</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01281057109599078</v>
+        <v>0.01127470451355354</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03235133504534349</v>
+        <v>0.03170146447010595</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>469255</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>458914</v>
+        <v>459240</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>474234</v>
+        <v>474185</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9866849221795737</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9649415098470532</v>
+        <v>0.9656279466921569</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9971554696269787</v>
+        <v>0.9970527083971389</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>442</v>
@@ -6990,19 +6990,19 @@
         <v>482157</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>472682</v>
+        <v>473407</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>487906</v>
+        <v>487767</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9723970284998364</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9532872242073536</v>
+        <v>0.9547498469664653</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9839902205529918</v>
+        <v>0.9837097589641625</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>739</v>
@@ -7011,19 +7011,19 @@
         <v>951412</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>940004</v>
+        <v>940635</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>958986</v>
+        <v>960478</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9793919988592771</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9676486649546565</v>
+        <v>0.9682985355298941</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9871894289040091</v>
+        <v>0.9887252954864464</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>31343</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21639</v>
+        <v>21619</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45603</v>
+        <v>45289</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05082237390107047</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0350873255992662</v>
+        <v>0.03505460920530974</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07394449254424887</v>
+        <v>0.07343421724108484</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -7136,19 +7136,19 @@
         <v>43447</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33559</v>
+        <v>32442</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55551</v>
+        <v>54691</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06995750814799921</v>
+        <v>0.0699575081479992</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05403542419571653</v>
+        <v>0.05223827554212125</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08944656231814752</v>
+        <v>0.08806215285090097</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>83</v>
@@ -7157,19 +7157,19 @@
         <v>74790</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>60339</v>
+        <v>60982</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>93321</v>
+        <v>92446</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06042337420532879</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04874845327665207</v>
+        <v>0.04926726082595914</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07539476887641937</v>
+        <v>0.07468784912343286</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>585380</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>571120</v>
+        <v>571434</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>595084</v>
+        <v>595104</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9491776260989296</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9260555074557512</v>
+        <v>0.9265657827589151</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9649126744007341</v>
+        <v>0.9649453907946901</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>789</v>
@@ -7207,19 +7207,19 @@
         <v>577601</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>565497</v>
+        <v>566357</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>587489</v>
+        <v>588606</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9300424918520008</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9105534376818523</v>
+        <v>0.9119378471490992</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9459645758042833</v>
+        <v>0.9477617244578788</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1304</v>
@@ -7228,19 +7228,19 @@
         <v>1162981</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1144450</v>
+        <v>1145325</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1177432</v>
+        <v>1176789</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9395766257946713</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9246052311235808</v>
+        <v>0.925312150876567</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9512515467233479</v>
+        <v>0.9507327391740408</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>22616</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14430</v>
+        <v>14599</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35051</v>
+        <v>34121</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03241444310768993</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02068128663890433</v>
+        <v>0.02092424481699426</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05023687290343207</v>
+        <v>0.04890416683814083</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -7353,19 +7353,19 @@
         <v>22675</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15724</v>
+        <v>15834</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31097</v>
+        <v>30933</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.03116537880913732</v>
+        <v>0.03116537880913731</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02161222104328495</v>
+        <v>0.02176293998940982</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04274093268045646</v>
+        <v>0.04251590857173056</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>54</v>
@@ -7374,19 +7374,19 @@
         <v>45291</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34628</v>
+        <v>34547</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>59549</v>
+        <v>60158</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03177683009154658</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02429529114598905</v>
+        <v>0.02423840326732243</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04178013813734387</v>
+        <v>0.0422075089885967</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>675099</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>662664</v>
+        <v>663594</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>683285</v>
+        <v>683116</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.96758555689231</v>
+        <v>0.9675855568923102</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9497631270965675</v>
+        <v>0.9510958331618594</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9793187133610957</v>
+        <v>0.9790757551830058</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1094</v>
@@ -7424,19 +7424,19 @@
         <v>704893</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>696471</v>
+        <v>696635</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>711844</v>
+        <v>711734</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9688346211908629</v>
+        <v>0.9688346211908627</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9572590673195436</v>
+        <v>0.9574840914282695</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.978387778956715</v>
+        <v>0.9782370600105902</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1736</v>
@@ -7445,19 +7445,19 @@
         <v>1379992</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1365734</v>
+        <v>1365125</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1390655</v>
+        <v>1390736</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9682231699084537</v>
+        <v>0.9682231699084535</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9582198618626564</v>
+        <v>0.9577924910114033</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9757047088540112</v>
+        <v>0.9757615967326776</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>12807</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6737</v>
+        <v>6819</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22619</v>
+        <v>22562</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.02122106076904789</v>
+        <v>0.02122106076904788</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01116369053309842</v>
+        <v>0.01129918733718089</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03748090806578076</v>
+        <v>0.03738697368804749</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -7570,19 +7570,19 @@
         <v>7829</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4444</v>
+        <v>4075</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14363</v>
+        <v>13254</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01303667689771241</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00739974652983572</v>
+        <v>0.006785130366444746</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02391549559249363</v>
+        <v>0.0220686512562722</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -7591,19 +7591,19 @@
         <v>20636</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13223</v>
+        <v>12957</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31348</v>
+        <v>30769</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01713875052926155</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01098196311966827</v>
+        <v>0.01076124918003313</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0260353276809802</v>
+        <v>0.02555413411165419</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>590675</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>580863</v>
+        <v>580920</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>596745</v>
+        <v>596663</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9787789392309523</v>
+        <v>0.978778939230952</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9625190919342189</v>
+        <v>0.9626130263119529</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9888363094669015</v>
+        <v>0.9887008126628192</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>977</v>
@@ -7641,19 +7641,19 @@
         <v>592745</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>586211</v>
+        <v>587320</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>596130</v>
+        <v>596499</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9869633231022875</v>
+        <v>0.9869633231022876</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9760845044075064</v>
+        <v>0.9779313487437277</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9926002534701642</v>
+        <v>0.9932148696335553</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1622</v>
@@ -7662,19 +7662,19 @@
         <v>1183420</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1172708</v>
+        <v>1173287</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1190833</v>
+        <v>1191099</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9828612494707385</v>
+        <v>0.9828612494707384</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9739646723190198</v>
+        <v>0.9744458658883458</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9890180368803316</v>
+        <v>0.9892387508199673</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>7687</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3978</v>
+        <v>3873</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13974</v>
+        <v>13847</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01900626323559826</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009835111284901691</v>
+        <v>0.009575011458010737</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0345522271721055</v>
+        <v>0.03423636495507248</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -7787,19 +7787,19 @@
         <v>3931</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1309</v>
+        <v>1887</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8470</v>
+        <v>8465</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.009066880651222999</v>
+        <v>0.009066880651222997</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00301899849807563</v>
+        <v>0.004353600268821472</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01953814426061884</v>
+        <v>0.01952592847312563</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -7808,19 +7808,19 @@
         <v>11618</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6822</v>
+        <v>6628</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>18331</v>
+        <v>18794</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0138641914859556</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008141863397755435</v>
+        <v>0.007910233604090385</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02187608459413305</v>
+        <v>0.02242822059864605</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>396757</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>390470</v>
+        <v>390597</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>400466</v>
+        <v>400571</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9809937367644018</v>
+        <v>0.9809937367644017</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9654477728278946</v>
+        <v>0.9657636350449276</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9901648887150983</v>
+        <v>0.9904249885419891</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>811</v>
@@ -7858,19 +7858,19 @@
         <v>429578</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>425039</v>
+        <v>425044</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>432200</v>
+        <v>431622</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.990933119348777</v>
+        <v>0.9909331193487769</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9804618557393813</v>
+        <v>0.9804740715268744</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9969810015019244</v>
+        <v>0.9956463997311785</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1367</v>
@@ -7879,19 +7879,19 @@
         <v>826335</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>819622</v>
+        <v>819159</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>831131</v>
+        <v>831325</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9861358085140444</v>
+        <v>0.9861358085140443</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9781239154058672</v>
+        <v>0.9775717794013544</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9918581366022445</v>
+        <v>0.9920897663959097</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>3285</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1010</v>
+        <v>993</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8818</v>
+        <v>7760</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.01075474200182511</v>
+        <v>0.0107547420018251</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003307347218233176</v>
+        <v>0.0032503883751556</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02887225534948839</v>
+        <v>0.02540663036337025</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -8004,19 +8004,19 @@
         <v>2111</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5237</v>
+        <v>6540</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.004601860659729411</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001400826611760134</v>
+        <v>0.001400125143224646</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01141687544797248</v>
+        <v>0.01425846066703268</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -8025,19 +8025,19 @@
         <v>5396</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2497</v>
+        <v>2098</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11890</v>
+        <v>10484</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.007061236057499203</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003267260862681331</v>
+        <v>0.00274575909546079</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01556089711694311</v>
+        <v>0.01372056549568415</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>302140</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>296607</v>
+        <v>297665</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>304415</v>
+        <v>304432</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9892452579981749</v>
+        <v>0.9892452579981748</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9711277446505115</v>
+        <v>0.9745933696366292</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9966926527817668</v>
+        <v>0.9967496116248444</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>870</v>
@@ -8075,19 +8075,19 @@
         <v>456578</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>453452</v>
+        <v>452149</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>458046</v>
+        <v>458047</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9953981393402707</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9885831245520275</v>
+        <v>0.9857415393329678</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9985991733882398</v>
+        <v>0.9985998748567754</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1317</v>
@@ -8096,19 +8096,19 @@
         <v>758718</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>752224</v>
+        <v>753630</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>761617</v>
+        <v>762016</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9929387639425007</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9844391028830564</v>
+        <v>0.9862794345043163</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9967327391373186</v>
+        <v>0.9972542409045392</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>96365</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>78253</v>
+        <v>76510</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>121449</v>
+        <v>120594</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.02750468997002447</v>
+        <v>0.02750468997002446</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02233523904975048</v>
+        <v>0.02183776636509726</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03466438735374289</v>
+        <v>0.03442042464479673</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>139</v>
@@ -8221,19 +8221,19 @@
         <v>120611</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>99280</v>
+        <v>102561</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>143275</v>
+        <v>145399</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0325997497704075</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0268343685801086</v>
+        <v>0.02772099117759414</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03872562781317904</v>
+        <v>0.03929960356799132</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>222</v>
@@ -8242,19 +8242,19 @@
         <v>216975</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>188773</v>
+        <v>187419</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>250274</v>
+        <v>253072</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.03012159912093358</v>
+        <v>0.03012159912093359</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02620641083927847</v>
+        <v>0.02601844872632015</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03474425246465321</v>
+        <v>0.03513277695113132</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3407205</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3382121</v>
+        <v>3382976</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3425317</v>
+        <v>3427060</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9724953100299756</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.965335612646257</v>
+        <v>0.9655795753552036</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9776647609502496</v>
+        <v>0.9781622336349031</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5176</v>
@@ -8292,19 +8292,19 @@
         <v>3579134</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3556470</v>
+        <v>3554346</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3600465</v>
+        <v>3597184</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9674002502295925</v>
+        <v>0.9674002502295924</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.961274372186821</v>
+        <v>0.9607003964320087</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9731656314198912</v>
+        <v>0.9722790088224058</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8441</v>
@@ -8313,19 +8313,19 @@
         <v>6986341</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6953042</v>
+        <v>6950244</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7014543</v>
+        <v>7015897</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9698784008790664</v>
+        <v>0.9698784008790665</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9652557475353469</v>
+        <v>0.9648672230488688</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.973793589160722</v>
+        <v>0.9739815512736799</v>
       </c>
     </row>
     <row r="27">
